--- a/experiment result/64_0.2_40_zs0_kappa_lp.xlsx
+++ b/experiment result/64_0.2_40_zs0_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0741384567465732</v>
+        <v>0.01924163290359946</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1059459040199447</v>
+        <v>0.01213686787906423</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1126539259938893</v>
+        <v>0.01328692915056583</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1056529237341444</v>
+        <v>0.02572782239452171</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.09059191757969082</v>
+        <v>0.0157166309040905</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1246057213607192</v>
+        <v>0.06014709157145252</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1285807523679513</v>
+        <v>0.007769684556190912</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1156782879427417</v>
+        <v>0.03706085304764405</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1047755236289263</v>
+        <v>0.02134341562539032</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1265953727755237</v>
+        <v>0.04536111681162576</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1633154552914518</v>
+        <v>0.07830518799987714</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1708642598902544</v>
+        <v>0.1086081810933482</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.128536098058487</v>
+        <v>0.01994173859323113</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1534180831792764</v>
+        <v>0.02600828496632809</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1156760663927044</v>
+        <v>0.02721105165811671</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1078326162710045</v>
+        <v>0.03150497516192774</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1412718543127629</v>
+        <v>0.05958932320544811</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.09390307089740776</v>
+        <v>0.002076552179238587</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1059306367790809</v>
+        <v>0.03855959891930545</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1562197094870233</v>
+        <v>0.04767829433928653</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.08707292992623691</v>
+        <v>0.01575982831949869</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1056050057713982</v>
+        <v>0.01578032512976937</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1064410302476883</v>
+        <v>0.02345592971420699</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.05324074840660457</v>
+        <v>0.006893695213312583</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.09446984339841838</v>
+        <v>0.009242243329782896</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1458151975191727</v>
+        <v>0.05245860816614188</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1028456893987194</v>
+        <v>0.01260334800709421</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.07808647697646012</v>
+        <v>0.02743562497173615</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1190948896104498</v>
+        <v>0.05586889968861969</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1211661780363464</v>
+        <v>0.03110873279579273</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.04823617505062677</v>
+        <v>0.004174997544977375</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1182340011002024</v>
+        <v>0.00715319942554922</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1321188723372819</v>
+        <v>0.03219126054102749</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.07529975721362378</v>
+        <v>0.007713651518897363</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.08056046888794413</v>
+        <v>0.01870314842871548</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1402883583415959</v>
+        <v>0.0449700669997587</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.09231462419898606</v>
+        <v>0.005193236451342439</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.1418358961704582</v>
+        <v>0.02063392865717902</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.06061790802951324</v>
+        <v>0.01613413231669691</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.1287483842763503</v>
+        <v>0.08714510004635188</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1384416525499317</v>
+        <v>0.08187730804470725</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.09031310755438018</v>
+        <v>0.01965447088358899</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.06827887316917616</v>
+        <v>0.03900778024713646</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.07123712429546143</v>
+        <v>0.0157966878957438</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0619497095520279</v>
+        <v>0.01758022033839692</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1321718892153171</v>
+        <v>0.03441698429433537</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1364527904214982</v>
+        <v>0.04582090534805783</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0752070568869871</v>
+        <v>0.009971242807423645</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.140420783630651</v>
+        <v>0.02064041871727235</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.09184884262944522</v>
+        <v>0.01057933041775073</v>
       </c>
     </row>
   </sheetData>
